--- a/ListasDatos/Martínez Cruz Norma_2021.xlsx
+++ b/ListasDatos/Martínez Cruz Norma_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="178">
   <si>
     <t>NC</t>
   </si>
@@ -349,7 +349,7 @@
     <t>2726892718</t>
   </si>
   <si>
-    <t>52272200000000000</t>
+    <t>5.22722e+16</t>
   </si>
   <si>
     <t>2727211100</t>
@@ -367,7 +367,7 @@
     <t>2721108745</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722111714</t>
@@ -442,7 +442,10 @@
     <t>jose_luisbr@hotmail.com</t>
   </si>
   <si>
-    <t>maberamirezramirez@gmail.com</t>
+    <t>Marchate1986@gmail.com</t>
+  </si>
+  <si>
+    <t>jdcastro@gmail.com</t>
   </si>
   <si>
     <t>luis.kaztello@gmail.com</t>
@@ -485,6 +488,9 @@
   </si>
   <si>
     <t>banda4203@hotmail.com</t>
+  </si>
+  <si>
+    <t>oficialsanchezmz@gmail.com</t>
   </si>
   <si>
     <t>fernandagonzales2267@gmail.com</t>
@@ -975,7 +981,7 @@
         <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1003,6 +1009,9 @@
       <c r="H3" t="s">
         <v>121</v>
       </c>
+      <c r="I3" t="s">
+        <v>142</v>
+      </c>
       <c r="J3" t="s">
         <v>109</v>
       </c>
@@ -1033,10 +1042,10 @@
         <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1065,10 +1074,10 @@
         <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1097,10 +1106,10 @@
         <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1129,10 +1138,10 @@
         <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1161,10 +1170,10 @@
         <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1190,10 +1199,10 @@
         <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1222,10 +1231,10 @@
         <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1251,10 +1260,10 @@
         <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1280,10 +1289,10 @@
         <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1312,7 +1321,7 @@
         <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1341,10 +1350,10 @@
         <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1370,10 +1379,10 @@
         <v>133</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1402,10 +1411,10 @@
         <v>134</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1434,7 +1443,7 @@
         <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1463,10 +1472,10 @@
         <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1495,10 +1504,10 @@
         <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1526,8 +1535,11 @@
       <c r="H20" t="s">
         <v>138</v>
       </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1553,10 +1565,10 @@
         <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:10">
